--- a/Запись/Запись 2021/Список записавшихся 2021.xlsx
+++ b/Запись/Запись 2021/Список записавшихся 2021.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VM_space\Text\Article\Lab-processings\Запись\Запись 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$62</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="212">
   <si>
     <t>Фамилия ребенка</t>
   </si>
@@ -635,19 +643,28 @@
   </si>
   <si>
     <t>Семенова</t>
+  </si>
+  <si>
+    <t>Visit_day</t>
+  </si>
+  <si>
+    <t>ВМ</t>
+  </si>
+  <si>
+    <t>АВ</t>
+  </si>
+  <si>
+    <t>ДА</t>
+  </si>
+  <si>
+    <t>Class_ch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,346 +685,16 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1060,253 +747,37 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1328,62 +799,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1641,29 +1083,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="25.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="9.11111111111111" customWidth="1"/>
-    <col min="5" max="5" width="17.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="25.2222222222222" customWidth="1"/>
-    <col min="7" max="7" width="17.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="19.2222222222222" customWidth="1"/>
+    <col min="1" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1676,20 +1121,26 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1700,18 +1151,24 @@
         <v>10</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="15">
+        <v>6</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1722,18 +1179,24 @@
         <v>15</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="15">
+        <v>7</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1744,18 +1207,24 @@
         <v>21</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="15">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1766,18 +1235,24 @@
         <v>27</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="15">
+        <v>6</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1788,18 +1263,24 @@
         <v>33</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="15">
+        <v>6</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -1810,18 +1291,24 @@
         <v>39</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="15">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1832,18 +1319,22 @@
         <v>44</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -1854,18 +1345,24 @@
         <v>49</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="15">
+        <v>7</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -1876,18 +1373,24 @@
         <v>24</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="15">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -1898,18 +1401,24 @@
         <v>33</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="15">
+        <v>7</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
@@ -1920,18 +1429,24 @@
         <v>21</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="15">
+        <v>6</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -1942,18 +1457,24 @@
         <v>67</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="15">
+        <v>7</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
@@ -1964,18 +1485,24 @@
         <v>56</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="15">
+        <v>6</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -1986,18 +1513,24 @@
         <v>75</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
@@ -2008,18 +1541,24 @@
         <v>79</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="15">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>82</v>
       </c>
@@ -2030,18 +1569,24 @@
         <v>84</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="15">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>88</v>
       </c>
@@ -2052,18 +1597,24 @@
         <v>64</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="15">
+        <v>6</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
@@ -2074,18 +1625,24 @@
         <v>67</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="15">
+        <v>6</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>92</v>
       </c>
@@ -2096,18 +1653,24 @@
         <v>67</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="15">
+        <v>6</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
@@ -2118,18 +1681,24 @@
         <v>96</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="15">
+        <v>6</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
@@ -2140,18 +1709,24 @@
         <v>36</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="15">
+        <v>8</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>101</v>
       </c>
@@ -2162,18 +1737,24 @@
         <v>44</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="15">
+        <v>7</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>105</v>
       </c>
@@ -2184,18 +1765,24 @@
         <v>21</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="15">
+        <v>5</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>109</v>
       </c>
@@ -2206,18 +1793,24 @@
         <v>69</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="15">
+        <v>6</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
         <v>112</v>
       </c>
@@ -2228,18 +1821,24 @@
         <v>24</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="15">
+        <v>8</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="4" t="s">
         <v>112</v>
       </c>
@@ -2250,18 +1849,24 @@
         <v>24</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="15">
+        <v>8</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>112</v>
       </c>
@@ -2272,18 +1877,24 @@
         <v>24</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="15">
+        <v>8</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>114</v>
       </c>
@@ -2294,18 +1905,24 @@
         <v>116</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="15">
+        <v>4</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>117</v>
       </c>
@@ -2316,18 +1933,24 @@
         <v>119</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="15">
+        <v>5</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>122</v>
       </c>
@@ -2338,18 +1961,24 @@
         <v>44</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="15">
+        <v>6</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="J31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>124</v>
       </c>
@@ -2360,18 +1989,24 @@
         <v>10</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="15">
+        <v>6</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="J32" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:10" ht="15.75" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>126</v>
       </c>
@@ -2382,18 +2017,24 @@
         <v>119</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="15">
+        <v>6</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="J33" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
       <c r="A34" s="4" t="s">
         <v>131</v>
       </c>
@@ -2404,18 +2045,24 @@
         <v>33</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="15">
+        <v>6</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="I34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="J34" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:10" ht="15.75" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>134</v>
       </c>
@@ -2426,18 +2073,24 @@
         <v>135</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="15">
+        <v>6</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="4" t="s">
         <v>137</v>
       </c>
@@ -2446,18 +2099,24 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="15">
+        <v>7</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="J36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1">
       <c r="A37" s="4" t="s">
         <v>137</v>
       </c>
@@ -2468,18 +2127,24 @@
         <v>140</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="15">
+        <v>5</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>141</v>
       </c>
@@ -2490,18 +2155,24 @@
         <v>142</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="15">
+        <v>6</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="J38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>144</v>
       </c>
@@ -2512,18 +2183,24 @@
         <v>145</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="15">
+        <v>6</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="J39" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1">
       <c r="A40" s="4" t="s">
         <v>146</v>
       </c>
@@ -2534,18 +2211,24 @@
         <v>148</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="E40" s="10"/>
+      <c r="F40" s="15">
+        <v>6</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="I40" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="J40" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:10" ht="15.75" thickBot="1">
       <c r="A41" s="4" t="s">
         <v>150</v>
       </c>
@@ -2556,18 +2239,24 @@
         <v>152</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="15">
+        <v>7</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="J41" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="A42" s="4" t="s">
         <v>154</v>
       </c>
@@ -2578,18 +2267,24 @@
         <v>64</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="15">
+        <v>5</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>158</v>
       </c>
@@ -2600,18 +2295,24 @@
         <v>69</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="10"/>
+      <c r="F43" s="15">
+        <v>6</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
       <c r="A44" s="4" t="s">
         <v>161</v>
       </c>
@@ -2622,18 +2323,24 @@
         <v>21</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="15">
+        <v>5</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="J44" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="4" t="s">
         <v>163</v>
       </c>
@@ -2644,18 +2351,24 @@
         <v>164</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="15">
+        <v>6</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>166</v>
       </c>
@@ -2666,18 +2379,24 @@
         <v>10</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="15">
+        <v>7</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="4" t="s">
         <v>168</v>
       </c>
@@ -2688,18 +2407,24 @@
         <v>69</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="15">
+        <v>7</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="J47" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:10" ht="15.75" thickBot="1">
       <c r="A48" s="4" t="s">
         <v>170</v>
       </c>
@@ -2710,18 +2435,24 @@
         <v>171</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="15">
+        <v>9</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:10" ht="15.75" thickBot="1">
       <c r="A49" s="4" t="s">
         <v>172</v>
       </c>
@@ -2732,18 +2463,24 @@
         <v>135</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="15">
+        <v>6</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="I49" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:10" ht="15.75" thickBot="1">
       <c r="A50" s="4" t="s">
         <v>175</v>
       </c>
@@ -2754,18 +2491,24 @@
         <v>67</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
+      <c r="E50" s="10"/>
+      <c r="F50" s="15">
+        <v>9</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="J50" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:10" ht="15.75" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>178</v>
       </c>
@@ -2776,18 +2519,24 @@
         <v>64</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="10"/>
+      <c r="F51" s="15">
+        <v>6</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="J51" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:10" ht="15.75" thickBot="1">
       <c r="A52" s="4" t="s">
         <v>179</v>
       </c>
@@ -2798,18 +2547,24 @@
         <v>64</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="15">
+        <v>6</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="J52" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:10" ht="15.75" thickBot="1">
       <c r="A53" s="4" t="s">
         <v>183</v>
       </c>
@@ -2820,18 +2575,24 @@
         <v>185</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
+      <c r="E53" s="10"/>
+      <c r="F53" s="15">
+        <v>6</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H53" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="I53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:10" ht="15.75" thickBot="1">
       <c r="A54" s="4" t="s">
         <v>187</v>
       </c>
@@ -2842,18 +2603,24 @@
         <v>81</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="15">
+        <v>4</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="I54" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:10" ht="15.75" thickBot="1">
       <c r="A55" s="4" t="s">
         <v>189</v>
       </c>
@@ -2864,18 +2631,24 @@
         <v>191</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
+      <c r="E55" s="10"/>
+      <c r="F55" s="15">
+        <v>5</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="I55" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:10" ht="15.75" thickBot="1">
       <c r="A56" s="4" t="s">
         <v>189</v>
       </c>
@@ -2886,18 +2659,24 @@
         <v>191</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
+      <c r="E56" s="10"/>
+      <c r="F56" s="15">
+        <v>5</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="I56" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1">
       <c r="A57" s="4" t="s">
         <v>192</v>
       </c>
@@ -2908,18 +2687,24 @@
         <v>10</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="15">
+        <v>7</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="I57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="J57" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:10" ht="15.75" thickBot="1">
       <c r="A58" s="4" t="s">
         <v>194</v>
       </c>
@@ -2930,18 +2715,24 @@
         <v>195</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
+      <c r="E58" s="10"/>
+      <c r="F58" s="15">
+        <v>7</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="I58" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1">
       <c r="A59" s="4" t="s">
         <v>198</v>
       </c>
@@ -2952,18 +2743,24 @@
         <v>199</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4" t="s">
+      <c r="E59" s="10"/>
+      <c r="F59" s="15">
+        <v>6</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H59" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:10" ht="15.75" thickBot="1">
       <c r="A60" s="4" t="s">
         <v>201</v>
       </c>
@@ -2974,18 +2771,24 @@
         <v>202</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4" t="s">
+      <c r="E60" s="10"/>
+      <c r="F60" s="15">
+        <v>7</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="I60" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:10" ht="15.75" thickBot="1">
       <c r="A61" s="4" t="s">
         <v>203</v>
       </c>
@@ -2996,18 +2799,24 @@
         <v>10</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
+      <c r="E61" s="10"/>
+      <c r="F61" s="15">
+        <v>7</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="I61" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:10" ht="15.75" thickBot="1">
       <c r="A62" s="4" t="s">
         <v>205</v>
       </c>
@@ -3018,28 +2827,36 @@
         <v>72</v>
       </c>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4" t="s">
+      <c r="E62" s="10"/>
+      <c r="F62" s="15">
+        <v>5</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="I62" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:10" ht="15.75" thickBot="1">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" thickBot="1">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3048,8 +2865,10 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3058,8 +2877,10 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3068,8 +2889,10 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3078,8 +2901,10 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3088,8 +2913,10 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3098,8 +2925,10 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3108,8 +2937,10 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3118,8 +2949,10 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3128,8 +2961,10 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3138,8 +2973,10 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3148,8 +2985,10 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" thickBot="1">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3158,8 +2997,10 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -3168,8 +3009,10 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" thickBot="1">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -3178,8 +3021,10 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -3188,8 +3033,10 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -3198,8 +3045,10 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3208,8 +3057,10 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3218,8 +3069,10 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" thickBot="1">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -3228,8 +3081,10 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" thickBot="1">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -3238,8 +3093,10 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" thickBot="1">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -3248,8 +3105,10 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" thickBot="1">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -3258,8 +3117,10 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3268,8 +3129,10 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -3278,8 +3141,10 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -3288,8 +3153,10 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" thickBot="1">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -3298,8 +3165,10 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" thickBot="1">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3308,8 +3177,10 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" thickBot="1">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -3318,8 +3189,10 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" thickBot="1">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3328,8 +3201,10 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" thickBot="1">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -3338,8 +3213,10 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" thickBot="1">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -3348,8 +3225,10 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -3358,8 +3237,10 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -3368,8 +3249,10 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -3378,8 +3261,10 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3388,8 +3273,10 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" thickBot="1">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -3398,8 +3285,10 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" thickBot="1">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -3408,8 +3297,10 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -3418,8 +3309,10 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -3428,8 +3321,10 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" thickBot="1">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -3438,8 +3333,10 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" thickBot="1">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -3448,8 +3345,10 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" thickBot="1">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -3458,8 +3357,10 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -3468,8 +3369,10 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -3478,8 +3381,10 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" thickBot="1">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -3488,8 +3393,10 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -3498,8 +3405,10 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" thickBot="1">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3508,8 +3417,10 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" thickBot="1">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -3518,8 +3429,10 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8">
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" thickBot="1">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -3528,8 +3441,10 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -3538,8 +3453,10 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -3548,8 +3465,10 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" thickBot="1">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -3558,8 +3477,10 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" thickBot="1">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -3568,8 +3489,10 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" thickBot="1">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -3578,8 +3501,10 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" thickBot="1">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -3588,8 +3513,10 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" thickBot="1">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -3598,8 +3525,10 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" thickBot="1">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -3608,8 +3537,10 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -3618,8 +3549,10 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -3628,8 +3561,10 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -3638,8 +3573,10 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -3648,8 +3585,10 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" thickBot="1">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -3658,8 +3597,10 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" thickBot="1">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -3668,8 +3609,10 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" thickBot="1">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -3678,8 +3621,10 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" thickBot="1">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -3688,8 +3633,10 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" thickBot="1">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -3698,8 +3645,10 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" thickBot="1">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -3708,8 +3657,10 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" thickBot="1">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -3718,8 +3669,10 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" thickBot="1">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -3728,8 +3681,10 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" thickBot="1">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -3738,8 +3693,10 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" thickBot="1">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -3748,8 +3705,10 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" thickBot="1">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -3758,8 +3717,10 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" thickBot="1">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -3768,8 +3729,10 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" thickBot="1">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -3778,8 +3741,10 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" thickBot="1">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -3788,8 +3753,10 @@
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" thickBot="1">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -3798,8 +3765,10 @@
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" s="8"/>
+      <c r="J139" s="8"/>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" thickBot="1">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -3808,8 +3777,10 @@
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" thickBot="1">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -3818,8 +3789,10 @@
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" thickBot="1">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -3828,8 +3801,10 @@
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" thickBot="1">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -3838,8 +3813,10 @@
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" thickBot="1">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -3848,8 +3825,10 @@
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" thickBot="1">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -3858,8 +3837,10 @@
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" thickBot="1">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -3868,8 +3849,10 @@
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" thickBot="1">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -3878,8 +3861,10 @@
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" thickBot="1">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -3888,8 +3873,10 @@
       <c r="F148" s="8"/>
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" thickBot="1">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -3898,8 +3885,10 @@
       <c r="F149" s="8"/>
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" thickBot="1">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -3908,8 +3897,10 @@
       <c r="F150" s="8"/>
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" thickBot="1">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -3918,8 +3909,10 @@
       <c r="F151" s="8"/>
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+    </row>
+    <row r="152" spans="1:10" ht="15.75" thickBot="1">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -3928,8 +3921,10 @@
       <c r="F152" s="8"/>
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" thickBot="1">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -3938,12 +3933,15 @@
       <c r="F153" s="8"/>
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J62"/>
   <sortState ref="A2:H62">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="29" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>